--- a/02-week/02-session/02-activity/Thesaurus.xlsx
+++ b/02-week/02-session/02-activity/Thesaurus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhampier santos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D78CA32-09F3-4569-A906-091CCAB9F570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566DDA87-1334-44BB-83C8-78C68DDF8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Articulo</t>
   </si>
@@ -66,72 +66,33 @@
     <t>Google Scholar</t>
   </si>
   <si>
-    <t>La Guía Scrum  </t>
-  </si>
-  <si>
-    <t>La Guía Definitiva a Scrum: Las reglas del juego </t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://quantumit.com.co/wp-content/uploads/2022/06/guia-scrum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Patrones de diseño </t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://d1wqtxts1xzle7.cloudfront.net/57338244/Patrones-libre.pdf?1536616605=&amp;response-content-disposition=inline%3B+filename%3DPatrones_de_diseno_Realizado_por.pdf&amp;Expires=1755791340&amp;Signature=eY-wKV-b6lRonGlUDz-YD5TZPLWAS8UdUmsLBiEjW9C35zwJIZGW0ntuCFX8G6MBMb07tvQUq158o1cF0hbSypPDGHi3uP46O2rROJ8HbXvM3neu1-9oEpSN3dpnQFDBL9PAP0lPh5PItuqaSieC-eAI5T9XTClx3G29LgLOxdTom1XhawmY~qgQUP3uBTdsUEok8DWeoFM9I2IiryS6g8vk~WM8gVkM2Pvv270upCi6SQwGqV-7wzsFX6zhNSBmb2XMdJoO-irg67ywYQIs8EtjYv5l3wyc7Pl5msrZEXDW5DC0Wn1IjFOfLZJs5cloJGoe9HDe21ZmO6pu4aZMNg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
   </si>
   <si>
     <t>https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">orientación a objetos </t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/http://conaiisi.frc.utn.edu.ar/PDFsParaPublicar/1/schedConfs/4/97-498-1-DR.pdf</t>
   </si>
   <si>
-    <t>Enseñando a programar en la orientación a objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC and java </t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/http://www.scielo.org.bo/pdf/ran/v2n4/v2n4_a05.pdf</t>
   </si>
   <si>
-    <t>El patron de diseño Modelo-Vista-Controlador (MVC) y su implementaci´on en Java Swing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React </t>
-  </si>
-  <si>
-    <t>Introduccion  de react</t>
-  </si>
-  <si>
     <t>https://books.google.com.co/books?hl=es&amp;lr=&amp;id=NZCKCgAAQBAJ&amp;oi=fnd&amp;pg=PR6&amp;dq=react+pdf&amp;ots=KCwuXrDB3j&amp;sig=K_RoSS-Flw3HsIFmvKaO_sWolG0&amp;redir_esc=y#v=onepage&amp;q&amp;f=false</t>
   </si>
   <si>
-    <t>Base de datos</t>
-  </si>
-  <si>
-    <t>MySQL todo sobre mysql</t>
-  </si>
-  <si>
     <t>https://books.google.com.co/books?hl=es&amp;lr=&amp;id=GS3kAgAAQBAJ&amp;oi=fnd&amp;pg=PT2&amp;dq=base+de+datos+mysql+pdf&amp;ots=hEJmAMxWwk&amp;sig=Qpx_hgyCKl8PETsc78MKXnB_Fgs&amp;redir_esc=y#v=onepage&amp;q&amp;f=false</t>
   </si>
   <si>
     <t>Java</t>
   </si>
   <si>
-    <t>Introduccion  de java</t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://d1wqtxts1xzle7.cloudfront.net/58308255/Introduccion_a_Java_-_Anton_Alarcon_Luna_Sornoza-libre.pdf?1549003523=&amp;response-content-disposition=inline%3B+filename%3DIntroduccion_a_Java_Anton_Alarcon_Luna_S.pdf&amp;Expires=1755794712&amp;Signature=Mbe49L5OV8eFDd-UaJMo0Dn~pqGD2VOAymo55~I1BPA17RXSAQ9bGaXQ~cTJb4uhwpnkoASOAyQNaH0Jjwv~DLqdndnx2SxeBCos6P53PVTCprdMWQRx~Gs9Ir7kR3PfBZTF0JT-NTIuKlmI4wTgJqrDBmU3feVopAxrc070iJ8JEKFmch1buPCMKIyVtuyu3wwxNQH8P1dg0qn~l5eejKXkRtLcHrbKkG9GOoZjZAippmeY2eB8NiFKVv2f0WY5AFxJhKol~3F9Dl8awU9VRLA8XRUt13yz~DJASplkKILg9gdG2fazs4FzmOx8kYVgdGdW3Pr8U-bmC5LiDCRTIA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
   </si>
   <si>
-    <t>Spring      Boot</t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.assets.dpunkt.de/leseproben/14020/Leseprobe.pdf</t>
   </si>
   <si>
@@ -141,110 +102,145 @@
     <t xml:space="preserve">Aplicación móvil </t>
   </si>
   <si>
-    <t xml:space="preserve">Aplicación móvil como instrumento de difusión </t>
-  </si>
-  <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.redalyc.org/pdf/904/90453464013.pdf</t>
   </si>
   <si>
-    <t>React native</t>
-  </si>
-  <si>
-    <t>React Native application
-development</t>
-  </si>
-  <si>
     <t>https://www.diva-portal.org/smash/get/diva2:998793/FULLTEXT02</t>
   </si>
   <si>
-    <t>Geolocalización</t>
-  </si>
-  <si>
-    <t>Optimización del rendimiento de los microservicios en Tibco a través de la analítica de datos</t>
-  </si>
-  <si>
-    <t>Optimizacion de rendimiento</t>
-  </si>
-  <si>
     <t>https://repositorio.cun.edu.co/bitstream/handle/cun/9571/SalasMayra_2025_Optimizaciónrendimientomicroservicios.pdf?sequence=1&amp;isAllowed=y</t>
   </si>
   <si>
     <t>www.researchgate.net/profile/Gerson-Lopez-2/publication/288180932_La_geolocalizacion_social/links/567eaf9b08ae1e63f1e7d840/La-geolocalizacion-social.pdf?__cf_chl_rt_tk=zwzU3p2xlRoRVSK2SkrCzW.el1fW_AUMp3_zuWIhN9c-1755995395-1.0.1.1-dUt25m72JONa23gWeWMBncR7AtSpO5Q5QYgbYxZ9pA0</t>
   </si>
   <si>
-    <t>LA GEOLOCALIZACIÓN SOCIAL</t>
-  </si>
-  <si>
-    <t>Autenticación en dos pasos (2FA)</t>
-  </si>
-  <si>
     <t>file:///C:/Users/Jhampier%20santos/Downloads/webmaster,+13020-Manuscrito-.pdf</t>
   </si>
   <si>
-    <t>la importancia de la autenticación en dos factores dentro de
-aplicaciones de uso común</t>
-  </si>
-  <si>
-    <t>Lombok</t>
-  </si>
-  <si>
-    <t>file:///C:/Users/Jhampier%20santos/Downloads/21.+Cokrowati%20(1).pdf</t>
-  </si>
-  <si>
-    <t>The Potential and Development of Seaweed Cultivation in Lombok: A
-Review</t>
-  </si>
-  <si>
-    <t>JWT (JSON Web Token)</t>
-  </si>
-  <si>
     <t>http://getrfc.com/data/pdf/rfc7519.txt.pdf</t>
   </si>
   <si>
-    <t>JSON Web Token (JWT)</t>
-  </si>
-  <si>
-    <t>Serialización/deserialización de
-objetos y transmisión de datos con
-JSON: una revisión de la literatura</t>
-  </si>
-  <si>
     <t>https://www.scielo.sa.cr/pdf/tem/v29n1/0379-3982-tem-29-01-118.pdf</t>
   </si>
   <si>
     <t>JSON</t>
   </si>
   <si>
-    <t>Maven</t>
-  </si>
-  <si>
-    <t>The MAVEN Magnetic Field Investigation</t>
-  </si>
-  <si>
     <t>https://link.springer.com/content/pdf/10.1007/s11214-015-0169-4.pdf</t>
   </si>
   <si>
-    <t>Evaluating performance of a React Native feature set</t>
-  </si>
-  <si>
     <t>https://www.diva-portal.org/smash/get/diva2%3A1215795/FULLTEXT01.pdf?utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>Evaluating performance of a
-React Native feature set</t>
-  </si>
-  <si>
-    <t>Optimizing Spring Boot Microservices for Scalability</t>
-  </si>
-  <si>
-    <t>Architectural Patterns and Challenges in Spring
-Boot for Microservices</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/profile/Nurul-Huda-Ahmad/publication/385686967_Architectural_Patterns_and_Challenges_in_Spring_Boot_for_Microservices_Evaluating_Automation_Strategies_for_Scaling_Monitoring_and_Deployment_in_Complex_Software_Ecosystems/links/672fcc4877b63d1220e84dfa/Architectural-Patterns-and-Challenges-in-Spring-Boot-for-Microservices-Evaluating-Automation-Strategies-for-Scaling-Monitoring-and-Deployment-in-Complex-Software-Ecosystems.pdf</t>
   </si>
   <si>
-    <t>Patrones de diseño: fundamentos y aplicaciones en ingeniería de software</t>
+    <t>Introducción a React: desarrollo de interfaces modernas</t>
+  </si>
+  <si>
+    <t>Spring Boot: desarrollo de aplicaciones modernas con Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patrones de diseño</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Base de datos mysql</t>
+  </si>
+  <si>
+    <t>MVC and java</t>
+  </si>
+  <si>
+    <t>La aplicación móvil como instrumento de difusión social</t>
+  </si>
+  <si>
+    <t>React Native Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React Native </t>
+  </si>
+  <si>
+    <t>Geolocalizacion</t>
+  </si>
+  <si>
+    <t>Optimización del rendimiento de microservicios en Tibco mediante analítica de datos</t>
+  </si>
+  <si>
+    <t>Optimización de rendimiento</t>
+  </si>
+  <si>
+    <t>La importancia de la autenticación en dos factores en aplicaciones de uso común</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autenticación en dos pasos (2FA) </t>
+  </si>
+  <si>
+    <t>Arquitectura de microservicios: enfoques y retos en entornos distribuido</t>
+  </si>
+  <si>
+    <t>Patrones de diseño en ingeniería de software y su aplicación práctica</t>
+  </si>
+  <si>
+    <t>Introducción a Java: conceptos fundamentales del lenguaje</t>
+  </si>
+  <si>
+    <t>La Guía Definitiva de Scrum: reglas del juego en equipos ágiles</t>
+  </si>
+  <si>
+    <t>Enseñando a programar en el paradigma de orientación a objetos</t>
+  </si>
+  <si>
+    <t>Introducción a React para el desarrollo de interfaces modernas</t>
+  </si>
+  <si>
+    <t>MySQL: fundamentos y gestión de bases de datos relacionales</t>
+  </si>
+  <si>
+    <t>El patrón Modelo–Vista–Controlador (MVC) y su implementación en Java Swing</t>
+  </si>
+  <si>
+    <t>La geolocalización social y sus aplicaciones tecnológicas</t>
+  </si>
+  <si>
+    <t>JSON Web Token (JWT): RFC 7519</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Serialización y deserialización de objetos y transmisión de datos con JSON: una revisión de literatura</t>
+  </si>
+  <si>
+    <t>Evaluating Performance of a React Native Feature Set</t>
+  </si>
+  <si>
+    <t>React Native (rendimiento)</t>
+  </si>
+  <si>
+    <t>Architectural Patterns and Challenges in Spring Boot for Microservices: Automation Strategies for Scaling and Monitoring</t>
+  </si>
+  <si>
+    <t>Spring Boot (microservicios)</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1186/s40064-016-2897-7.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Influence analysis of Github repositories</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>AQuick Introduction to Version Control with Git and GitHub</t>
+  </si>
+  <si>
+    <t>Github and Git</t>
   </si>
 </sst>
 </file>
@@ -356,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -415,10 +411,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,19 +779,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="19">
+        <v>44525</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>0</v>
@@ -803,19 +802,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C3" s="19">
         <v>44525</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
+      <c r="F3" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>0</v>
@@ -826,19 +825,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C4" s="19">
         <v>44525</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>29</v>
+      <c r="F4" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>0</v>
@@ -849,19 +848,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="19">
+        <v>44525</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
+      <c r="F5" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>0</v>
@@ -872,19 +871,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C6" s="19">
         <v>44525</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>18</v>
+      <c r="F6" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>0</v>
@@ -895,19 +894,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C7" s="19">
         <v>44525</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
+      <c r="F7" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>0</v>
@@ -918,19 +917,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C8" s="19">
         <v>44525</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>0</v>
@@ -941,19 +940,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C9" s="19">
         <v>44525</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
+      <c r="F9" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>0</v>
@@ -964,19 +963,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" s="19">
         <v>44525</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>35</v>
+      <c r="F10" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -985,19 +984,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="19">
         <v>44525</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
+      <c r="F11" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1006,19 +1005,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="19">
         <v>44525</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>38</v>
+      <c r="F12" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -1027,19 +1026,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C13" s="19">
         <v>44525</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>45</v>
+      <c r="F13" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -1048,19 +1047,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="19">
         <v>44525</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>41</v>
+      <c r="F14" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -1075,13 +1074,13 @@
         <v>44525</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1090,19 +1089,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C16" s="19">
         <v>44525</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>51</v>
+      <c r="F16" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -1111,19 +1110,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C17" s="19">
         <v>44525</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>54</v>
+      <c r="F17" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -1132,40 +1131,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="19">
         <v>44525</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>55</v>
+      <c r="F18" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19" s="19">
         <v>44525</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>59</v>
+      <c r="F19" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1174,19 +1173,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44525</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1195,19 +1194,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="19">
         <v>44525</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>65</v>
+      <c r="F21" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G21" s="7"/>
     </row>

--- a/02-week/02-session/02-activity/Thesaurus.xlsx
+++ b/02-week/02-session/02-activity/Thesaurus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhampier santos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566DDA87-1334-44BB-83C8-78C68DDF8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7F51D-830F-40C4-888B-E830468C87BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
@@ -404,9 +404,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -418,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,8 +781,8 @@
       <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="19">
-        <v>44525</v>
+      <c r="C2" s="23">
+        <v>2019</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>12</v>
@@ -790,7 +790,7 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -804,16 +804,16 @@
       <c r="B3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="23">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -827,8 +827,8 @@
       <c r="B4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="19">
-        <v>44525</v>
+      <c r="C4" s="23">
+        <v>2014</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -836,7 +836,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -850,8 +850,8 @@
       <c r="B5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19">
-        <v>44525</v>
+      <c r="C5" s="23">
+        <v>2022</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
@@ -859,7 +859,7 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -873,8 +873,8 @@
       <c r="B6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="19">
-        <v>44525</v>
+      <c r="C6" s="23">
+        <v>2016</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>13</v>
@@ -882,7 +882,7 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -896,16 +896,16 @@
       <c r="B7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="23">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -919,8 +919,8 @@
       <c r="B8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="19">
-        <v>44525</v>
+      <c r="C8" s="23">
+        <v>2008</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>16</v>
@@ -928,7 +928,7 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -942,8 +942,8 @@
       <c r="B9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="19">
-        <v>44525</v>
+      <c r="C9" s="23">
+        <v>2013</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -951,7 +951,7 @@
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -965,8 +965,8 @@
       <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="19">
-        <v>44525</v>
+      <c r="C10" s="23">
+        <v>2016</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>22</v>
@@ -974,7 +974,7 @@
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="8"/>
@@ -986,8 +986,8 @@
       <c r="B11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="19">
-        <v>44525</v>
+      <c r="C11" s="23">
+        <v>2020</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -995,7 +995,7 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="8"/>
@@ -1007,16 +1007,16 @@
       <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="23">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="8"/>
@@ -1028,8 +1028,8 @@
       <c r="B13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="19">
-        <v>44525</v>
+      <c r="C13" s="23">
+        <v>2018</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>25</v>
@@ -1037,7 +1037,7 @@
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7"/>
@@ -1049,16 +1049,16 @@
       <c r="B14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="8"/>
@@ -1070,16 +1070,16 @@
       <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="23">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="8"/>
@@ -1091,16 +1091,16 @@
       <c r="B16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="19">
-        <v>44525</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="23">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="8"/>
@@ -1112,8 +1112,8 @@
       <c r="B17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="19">
-        <v>44525</v>
+      <c r="C17" s="23">
+        <v>2015</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>27</v>
@@ -1121,7 +1121,7 @@
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="7"/>
@@ -1133,8 +1133,8 @@
       <c r="B18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="19">
-        <v>44525</v>
+      <c r="C18" s="23">
+        <v>2019</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>28</v>
@@ -1142,7 +1142,7 @@
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="7"/>
@@ -1154,8 +1154,8 @@
       <c r="B19" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="19">
-        <v>44525</v>
+      <c r="C19" s="23">
+        <v>2014</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>30</v>
@@ -1163,7 +1163,7 @@
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="7"/>
@@ -1175,8 +1175,8 @@
       <c r="B20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="19">
-        <v>44525</v>
+      <c r="C20" s="23">
+        <v>2017</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>31</v>
@@ -1184,7 +1184,7 @@
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="7"/>
@@ -1196,8 +1196,8 @@
       <c r="B21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19">
-        <v>44525</v>
+      <c r="C21" s="23">
+        <v>2021</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>32</v>
@@ -1205,7 +1205,7 @@
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="7"/>
